--- a/Answers/E2SamplesRNG.xlsx
+++ b/Answers/E2SamplesRNG.xlsx
@@ -436,609 +436,609 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>('ANG_1',)</t>
+          <t>ANG_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>('BDNF_1',)</t>
+          <t>BDNF_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>('BLC_1',)</t>
+          <t>BLC_1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>('BMP-4_1',)</t>
+          <t>BMP-4_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>('BMP-6_1',)</t>
+          <t>BMP-6_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>('CK b8-1_1',)</t>
+          <t>CK b8-1_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>('CNTF_1',)</t>
+          <t>CNTF_1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>('EGF_1',)</t>
+          <t>EGF_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin_1',)</t>
+          <t>Eotaxin_1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin-2_1',)</t>
+          <t>Eotaxin-2_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin-3_1',)</t>
+          <t>Eotaxin-3_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>('FGF-6_1',)</t>
+          <t>FGF-6_1</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>('FGF-7_1',)</t>
+          <t>FGF-7_1</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>('Fit-3 Ligand_1',)</t>
+          <t>Fit-3 Ligand_1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>('Fractalkine_1',)</t>
+          <t>Fractalkine_1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>('GCP-2_1',)</t>
+          <t>GCP-2_1</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>('GDNF_1',)</t>
+          <t>GDNF_1</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>('GM-CSF_1',)</t>
+          <t>GM-CSF_1</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>('I-309_1',)</t>
+          <t>I-309_1</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>('IFN-g_1',)</t>
+          <t>IFN-g_1</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>('IGF-1_1',)</t>
+          <t>IGF-1_1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-1_1',)</t>
+          <t>IGFBP-1_1</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-2_1',)</t>
+          <t>IGFBP-2_1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-4_1',)</t>
+          <t>IGFBP-4_1</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>('IL-10_1',)</t>
+          <t>IL-10_1</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>('IL-13_1',)</t>
+          <t>IL-13_1</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>('IL-15_1',)</t>
+          <t>IL-15_1</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>('IL-16_1',)</t>
+          <t>IL-16_1</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>('IL-1a_1',)</t>
+          <t>IL-1a_1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>('IL-1b_1',)</t>
+          <t>IL-1b_1</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>('IL-1ra_1',)</t>
+          <t>IL-1ra_1</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>('IL-2_1',)</t>
+          <t>IL-2_1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>('IL-3_1',)</t>
+          <t>IL-3_1</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>('IL-4_1',)</t>
+          <t>IL-4_1</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>('IL-5_1',)</t>
+          <t>IL-5_1</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>('IL-6_1',)</t>
+          <t>IL-6_1</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>('IL-7_1',)</t>
+          <t>IL-7_1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>('LEPTIN(OB)_1',)</t>
+          <t>LEPTIN(OB)_1</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>('LIGHT_1',)</t>
+          <t>LIGHT_1</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>('MCP-1_1',)</t>
+          <t>MCP-1_1</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>('MCP-2_1',)</t>
+          <t>MCP-2_1</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>('MCP-3_1',)</t>
+          <t>MCP-3_1</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>('MCP-4_1',)</t>
+          <t>MCP-4_1</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>('M-CSF_1',)</t>
+          <t>M-CSF_1</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>('MDC_1',)</t>
+          <t>MDC_1</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>('MIG_1',)</t>
+          <t>MIG_1</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1d_1',)</t>
+          <t>MIP-1d_1</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>('MIP-3a_1',)</t>
+          <t>MIP-3a_1</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>('NAP-2_1',)</t>
+          <t>NAP-2_1</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>('NT-3_1',)</t>
+          <t>NT-3_1</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>('PARC_1',)</t>
+          <t>PARC_1</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>('PDGF-BB_1',)</t>
+          <t>PDGF-BB_1</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>('RANTES_1',)</t>
+          <t>RANTES_1</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>('SCF_1',)</t>
+          <t>SCF_1</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>('SDF-1_1',)</t>
+          <t>SDF-1_1</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>('TARC_1',)</t>
+          <t>TARC_1</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>('TGF-b_1',)</t>
+          <t>TGF-b_1</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>('TGF-b3_1',)</t>
+          <t>TGF-b3_1</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>('TNF-a_1',)</t>
+          <t>TNF-a_1</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>('TNF-b_1',)</t>
+          <t>TNF-b_1</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>('Acrp30_1',)</t>
+          <t>Acrp30_1</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>('AgRP(ART)_1',)</t>
+          <t>AgRP(ART)_1</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>('ANG-2_1',)</t>
+          <t>ANG-2_1</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>('AR_1',)</t>
+          <t>AR_1</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>('AXL_1',)</t>
+          <t>AXL_1</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>('bFGF',)</t>
+          <t>bFGF</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>('b-NGF_1',)</t>
+          <t>b-NGF_1</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>('BTC_1',)</t>
+          <t>BTC_1</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>('CCL-28_1',)</t>
+          <t>CCL-28_1</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>('CTACK_1',)</t>
+          <t>CTACK_1</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>('DTK_1',)</t>
+          <t>DTK_1</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>('EGF-R_1',)</t>
+          <t>EGF-R_1</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>('ENA-78_1',)</t>
+          <t>ENA-78_1</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>('FAS_1',)</t>
+          <t>FAS_1</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>('FGF-4_1',)</t>
+          <t>FGF-4_1</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>('FGF-9_1',)</t>
+          <t>FGF-9_1</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>('GCSF_1',)</t>
+          <t>GCSF_1</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>('GITR_1',)</t>
+          <t>GITR_1</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>('GITR-Light_1',)</t>
+          <t>GITR-Light_1</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>('GRO_1',)</t>
+          <t>GRO_1</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>('GRO-a_1',)</t>
+          <t>GRO-a_1</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>('HCC-4_1',)</t>
+          <t>HCC-4_1</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>('HGF_1',)</t>
+          <t>HGF_1</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>('ICAM-1_1',)</t>
+          <t>ICAM-1_1</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>('ICAM-3_1',)</t>
+          <t>ICAM-3_1</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>('IGF-1 SR',)</t>
+          <t>IGF-1 SR</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP3_1',)</t>
+          <t>IGFBP3_1</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-6_1',)</t>
+          <t>IGFBP-6_1</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>('IL-1 RI_1',)</t>
+          <t>IL-1 RI_1</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>('IL-11_1',)</t>
+          <t>IL-11_1</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>('IL-12 p40_1',)</t>
+          <t>IL-12 p40_1</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>('IL-12 p70_1',)</t>
+          <t>IL-12 p70_1</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>('IL-17_1',)</t>
+          <t>IL-17_1</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>('IL-1R4 /ST2_1',)</t>
+          <t>IL-1R4 /ST2_1</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>('IL-2 Ra_1',)</t>
+          <t>IL-2 Ra_1</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>('IL-6 R_1',)</t>
+          <t>IL-6 R_1</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>('IL-8_1',)</t>
+          <t>IL-8_1</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>('I-TAC_1',)</t>
+          <t>I-TAC_1</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>('Lymphotactin_1',)</t>
+          <t>Lymphotactin_1</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>('MIF_1',)</t>
+          <t>MIF_1</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1a_1',)</t>
+          <t>MIP-1a_1</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1b_1',)</t>
+          <t>MIP-1b_1</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>('MIP-3b_1',)</t>
+          <t>MIP-3b_1</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>('MSP-a_1',)</t>
+          <t>MSP-a_1</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>('NT-4_1',)</t>
+          <t>NT-4_1</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>('OSM_1',)</t>
+          <t>OSM_1</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>('OST_1',)</t>
+          <t>OST_1</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>('PIGF_1',)</t>
+          <t>PIGF_1</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>('spg130_1',)</t>
+          <t>spg130_1</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>('sTNF RI_1',)</t>
+          <t>sTNF RI_1</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>('sTNF RII_1',)</t>
+          <t>sTNF RII_1</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>('TECK_1',)</t>
+          <t>TECK_1</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>('TIMP-1_1',)</t>
+          <t>TIMP-1_1</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>('TIMP-2_1',)</t>
+          <t>TIMP-2_1</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>('TPO_1',)</t>
+          <t>TPO_1</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>('TRAIL R3_1',)</t>
+          <t>TRAIL R3_1</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>('TRAIL R4_1',)</t>
+          <t>TRAIL R4_1</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>('uPAR_1',)</t>
+          <t>uPAR_1</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>('VEGF-B_1',)</t>
+          <t>VEGF-B_1</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>('VEGF-D_1',)</t>
+          <t>VEGF-D_1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('ANG_1',)</t>
+          <t>ANG_1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8.742434437854905</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>18.08612407657943</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('BDNF_1',)</t>
+          <t>BDNF_1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.943353223727483</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>8.067740233092181</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>7.250545082321117</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('BLC_1',)</t>
+          <t>BLC_1</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.290591787109163</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('BMP-4_1',)</t>
+          <t>BMP-4_1</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.993645904756687</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.840995275429382</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>4.521613032689641</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.139575323019593</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('BMP-6_1',)</t>
+          <t>BMP-6_1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.728253685183754</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('CK b8-1_1',)</t>
+          <t>CK b8-1_1</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.719970093180935</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2904,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.326006897890278</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2.137397767441404</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.923090841864348</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('CNTF_1',)</t>
+          <t>CNTF_1</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.78891712094887</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.54619367598933</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>2.569304842471944</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('EGF_1',)</t>
+          <t>EGF_1</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.199848305821524</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin_1',)</t>
+          <t>Eotaxin_1</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4341,7 +4341,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin-2_1',)</t>
+          <t>Eotaxin-2_1</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4708,7 +4708,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('Eotaxin-3_1',)</t>
+          <t>Eotaxin-3_1</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2.419507661333948</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.740590982266369</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.614682205706453</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73592675106004</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="CU12" t="n">
-        <v>3.11030999174078</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
         <v>0</v>
@@ -5075,7 +5075,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('FGF-6_1',)</t>
+          <t>FGF-6_1</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>5.818649714885768</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
         <v>0</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>3.137877171868068</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
@@ -5442,7 +5442,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('FGF-7_1',)</t>
+          <t>FGF-7_1</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.449118181289414</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.337918736027269</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>2.919023318683984</v>
+        <v>0</v>
       </c>
       <c r="BY14" t="n">
         <v>0</v>
@@ -5809,7 +5809,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('Fit-3 Ligand_1',)</t>
+          <t>Fit-3 Ligand_1</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.473869174667571</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.89455285576357</v>
+        <v>0</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
@@ -6176,7 +6176,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('Fractalkine_1',)</t>
+          <t>Fractalkine_1</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.091394046255722</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -6543,7 +6543,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('GCP-2_1',)</t>
+          <t>GCP-2_1</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.143178313303139</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.089655974350994</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6910,7 +6910,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('GDNF_1',)</t>
+          <t>GDNF_1</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.887146329577422</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.824546640129588</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -7277,7 +7277,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('GM-CSF_1',)</t>
+          <t>GM-CSF_1</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -7383,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.244874286268985</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.260799391838724</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -7644,7 +7644,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('I-309_1',)</t>
+          <t>I-309_1</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.929397783661284</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -7741,13 +7741,13 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.61155747435931</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.922549846100883</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.70416527985687</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.686810541830317</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="CD20" t="n">
-        <v>1.999959740373308</v>
+        <v>0</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -8011,7 +8011,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('IFN-g_1',)</t>
+          <t>IFN-g_1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.636308016918643</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
         <v>0</v>
@@ -8378,7 +8378,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('IGF-1_1',)</t>
+          <t>IGF-1_1</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8745,7 +8745,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-1_1',)</t>
+          <t>IGFBP-1_1</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>3.971103390424789</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-2_1',)</t>
+          <t>IGFBP-2_1</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="BL24" t="n">
-        <v>4.473412001359695</v>
+        <v>0</v>
       </c>
       <c r="BM24" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-4_1',)</t>
+          <t>IGFBP-4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.632298918722844</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
         <v>0</v>
@@ -9846,7 +9846,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('IL-10_1',)</t>
+          <t>IL-10_1</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>2.198732898338725</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -10213,7 +10213,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('IL-13_1',)</t>
+          <t>IL-13_1</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.291737097692665</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
@@ -10580,7 +10580,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('IL-15_1',)</t>
+          <t>IL-15_1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.100300638946404</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -10689,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>1.255852807653411</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
@@ -10788,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="BR28" t="n">
-        <v>3.051014128284215</v>
+        <v>0</v>
       </c>
       <c r="BS28" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('IL-16_1',)</t>
+          <t>IL-16_1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -11314,7 +11314,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('IL-1a_1',)</t>
+          <t>IL-1a_1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.937857582432201</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -11681,7 +11681,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('IL-1b_1',)</t>
+          <t>IL-1b_1</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.887703473054611</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
@@ -12048,7 +12048,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('IL-1ra_1',)</t>
+          <t>IL-1ra_1</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>3.987543906328541</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
         <v>0</v>
@@ -12415,7 +12415,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('IL-2_1',)</t>
+          <t>IL-2_1</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.964733945307649</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>1.495176123608163</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -12782,7 +12782,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('IL-3_1',)</t>
+          <t>IL-3_1</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -12885,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.009711629087694</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="n">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="CQ34" t="n">
-        <v>2.332220704203834</v>
+        <v>0</v>
       </c>
       <c r="CR34" t="n">
         <v>0</v>
@@ -13149,7 +13149,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('IL-4_1',)</t>
+          <t>IL-4_1</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.998745469195864</v>
+        <v>0</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -13516,7 +13516,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('IL-5_1',)</t>
+          <t>IL-5_1</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -13796,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="CP36" t="n">
-        <v>1.91817852965385</v>
+        <v>0</v>
       </c>
       <c r="CQ36" t="n">
         <v>0</v>
@@ -13883,7 +13883,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('IL-6_1',)</t>
+          <t>IL-6_1</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -14052,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="BE37" t="n">
-        <v>1.686052209780321</v>
+        <v>0</v>
       </c>
       <c r="BF37" t="n">
         <v>0</v>
@@ -14250,7 +14250,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('IL-7_1',)</t>
+          <t>IL-7_1</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -14527,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="CO38" t="n">
-        <v>2.314697256098176</v>
+        <v>0</v>
       </c>
       <c r="CP38" t="n">
         <v>0</v>
@@ -14617,7 +14617,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('LEPTIN(OB)_1',)</t>
+          <t>LEPTIN(OB)_1</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -14984,7 +14984,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('LIGHT_1',)</t>
+          <t>LIGHT_1</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -15105,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>1.778536991731881</v>
+        <v>0</v>
       </c>
       <c r="AP40" t="n">
         <v>0</v>
@@ -15156,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="BF40" t="n">
-        <v>2.078059412179445</v>
+        <v>0</v>
       </c>
       <c r="BG40" t="n">
         <v>0</v>
@@ -15351,7 +15351,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('MCP-1_1',)</t>
+          <t>MCP-1_1</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -15490,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>1.933384655584012</v>
+        <v>0</v>
       </c>
       <c r="AV41" t="n">
         <v>0</v>
@@ -15718,7 +15718,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('MCP-2_1',)</t>
+          <t>MCP-2_1</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -15845,7 +15845,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.476035783533358</v>
+        <v>0</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -16085,7 +16085,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('MCP-3_1',)</t>
+          <t>MCP-3_1</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>1.70981098545121</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
         <v>0</v>
@@ -16251,7 +16251,7 @@
         <v>0</v>
       </c>
       <c r="BD43" t="n">
-        <v>1.585774297560056</v>
+        <v>0</v>
       </c>
       <c r="BE43" t="n">
         <v>0</v>
@@ -16452,7 +16452,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('MCP-4_1',)</t>
+          <t>MCP-4_1</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -16621,7 +16621,7 @@
         <v>0</v>
       </c>
       <c r="BE44" t="n">
-        <v>1.401818775937408</v>
+        <v>0</v>
       </c>
       <c r="BF44" t="n">
         <v>0</v>
@@ -16819,7 +16819,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('M-CSF_1',)</t>
+          <t>M-CSF_1</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -16955,13 +16955,13 @@
         <v>0</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.63997443985587</v>
+        <v>0</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
       </c>
       <c r="AV45" t="n">
-        <v>2.977195336491697</v>
+        <v>0</v>
       </c>
       <c r="AW45" t="n">
         <v>0</v>
@@ -17186,7 +17186,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('MDC_1',)</t>
+          <t>MDC_1</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -17325,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>1.834597970747314</v>
+        <v>0</v>
       </c>
       <c r="AV46" t="n">
         <v>0</v>
@@ -17379,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="BM46" t="n">
-        <v>2.857274430862764</v>
+        <v>0</v>
       </c>
       <c r="BN46" t="n">
         <v>0</v>
@@ -17553,7 +17553,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('MIG_1',)</t>
+          <t>MIG_1</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -17920,7 +17920,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1d_1',)</t>
+          <t>MIP-1d_1</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -18095,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="BG48" t="n">
-        <v>3.092443994476157</v>
+        <v>0</v>
       </c>
       <c r="BH48" t="n">
         <v>0</v>
@@ -18287,7 +18287,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('MIP-3a_1',)</t>
+          <t>MIP-3a_1</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -18459,13 +18459,13 @@
         <v>0</v>
       </c>
       <c r="BF49" t="n">
-        <v>1.941803785440623</v>
+        <v>0</v>
       </c>
       <c r="BG49" t="n">
         <v>0</v>
       </c>
       <c r="BH49" t="n">
-        <v>1.96018633077154</v>
+        <v>0</v>
       </c>
       <c r="BI49" t="n">
         <v>0</v>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="BT49" t="n">
-        <v>2.639005371896747</v>
+        <v>0</v>
       </c>
       <c r="BU49" t="n">
         <v>0</v>
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="DD49" t="n">
-        <v>2.490050176471</v>
+        <v>0</v>
       </c>
       <c r="DE49" t="n">
         <v>0</v>
@@ -18654,7 +18654,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('NAP-2_1',)</t>
+          <t>NAP-2_1</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -18808,13 +18808,13 @@
         <v>0</v>
       </c>
       <c r="AZ50" t="n">
-        <v>10.30668784043111</v>
+        <v>0</v>
       </c>
       <c r="BA50" t="n">
         <v>0</v>
       </c>
       <c r="BB50" t="n">
-        <v>9.750293290981213</v>
+        <v>0</v>
       </c>
       <c r="BC50" t="n">
         <v>0</v>
@@ -18994,7 +18994,7 @@
         <v>0</v>
       </c>
       <c r="DJ50" t="n">
-        <v>9.811190506201042</v>
+        <v>0</v>
       </c>
       <c r="DK50" t="n">
         <v>0</v>
@@ -19021,7 +19021,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('NT-3_1',)</t>
+          <t>NT-3_1</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -19184,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="BC51" t="n">
-        <v>3.174529759824029</v>
+        <v>0</v>
       </c>
       <c r="BD51" t="n">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="BG51" t="n">
-        <v>2.578392233766194</v>
+        <v>0</v>
       </c>
       <c r="BH51" t="n">
         <v>0</v>
@@ -19388,7 +19388,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('PARC_1',)</t>
+          <t>PARC_1</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -19731,7 +19731,7 @@
         <v>0</v>
       </c>
       <c r="DK52" t="n">
-        <v>9.371709360291087</v>
+        <v>0</v>
       </c>
       <c r="DL52" t="n">
         <v>0</v>
@@ -19755,7 +19755,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('PDGF-BB_1',)</t>
+          <t>PDGF-BB_1</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -19918,7 +19918,7 @@
         <v>0</v>
       </c>
       <c r="BC53" t="n">
-        <v>4.342076920576277</v>
+        <v>0</v>
       </c>
       <c r="BD53" t="n">
         <v>0</v>
@@ -20122,7 +20122,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('RANTES_1',)</t>
+          <t>RANTES_1</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -20411,7 +20411,7 @@
         <v>0</v>
       </c>
       <c r="CS54" t="n">
-        <v>9.650828978856447</v>
+        <v>0</v>
       </c>
       <c r="CT54" t="n">
         <v>0</v>
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="DK54" t="n">
-        <v>10.53531088106054</v>
+        <v>0</v>
       </c>
       <c r="DL54" t="n">
         <v>0</v>
@@ -20489,7 +20489,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('SCF_1',)</t>
+          <t>SCF_1</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -20709,7 +20709,7 @@
         <v>0</v>
       </c>
       <c r="BV55" t="n">
-        <v>3.166987660480943</v>
+        <v>0</v>
       </c>
       <c r="BW55" t="n">
         <v>0</v>
@@ -20856,7 +20856,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('SDF-1_1',)</t>
+          <t>SDF-1_1</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -21025,10 +21025,10 @@
         <v>0</v>
       </c>
       <c r="BE56" t="n">
-        <v>1.538822187315649</v>
+        <v>0</v>
       </c>
       <c r="BF56" t="n">
-        <v>1.527570184625344</v>
+        <v>0</v>
       </c>
       <c r="BG56" t="n">
         <v>0</v>
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="BV56" t="n">
-        <v>2.176263262365785</v>
+        <v>0</v>
       </c>
       <c r="BW56" t="n">
         <v>0</v>
@@ -21223,7 +21223,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('TARC_1',)</t>
+          <t>TARC_1</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -21590,7 +21590,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('TGF-b_1',)</t>
+          <t>TGF-b_1</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -21840,7 +21840,7 @@
         <v>0</v>
       </c>
       <c r="CF58" t="n">
-        <v>2.538618286233475</v>
+        <v>0</v>
       </c>
       <c r="CG58" t="n">
         <v>0</v>
@@ -21867,7 +21867,7 @@
         <v>0</v>
       </c>
       <c r="CO58" t="n">
-        <v>2.047365103852209</v>
+        <v>0</v>
       </c>
       <c r="CP58" t="n">
         <v>0</v>
@@ -21888,7 +21888,7 @@
         <v>0</v>
       </c>
       <c r="CV58" t="n">
-        <v>2.514510292547445</v>
+        <v>0</v>
       </c>
       <c r="CW58" t="n">
         <v>0</v>
@@ -21909,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="DC58" t="n">
-        <v>2.650963996628282</v>
+        <v>0</v>
       </c>
       <c r="DD58" t="n">
         <v>0</v>
@@ -21957,7 +21957,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('TGF-b3_1',)</t>
+          <t>TGF-b3_1</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -22138,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="BI59" t="n">
-        <v>3.351013140557547</v>
+        <v>0</v>
       </c>
       <c r="BJ59" t="n">
         <v>0</v>
@@ -22324,7 +22324,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('TNF-a_1',)</t>
+          <t>TNF-a_1</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -22691,7 +22691,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('TNF-b_1',)</t>
+          <t>TNF-b_1</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -22890,7 +22890,7 @@
         <v>0</v>
       </c>
       <c r="BO61" t="n">
-        <v>3.951057647265293</v>
+        <v>0</v>
       </c>
       <c r="BP61" t="n">
         <v>0</v>
@@ -23058,7 +23058,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('Acrp30_1',)</t>
+          <t>Acrp30_1</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -23425,7 +23425,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('AgRP(ART)_1',)</t>
+          <t>AgRP(ART)_1</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -23792,7 +23792,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('ANG-2_1',)</t>
+          <t>ANG-2_1</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -23988,7 +23988,7 @@
         <v>0</v>
       </c>
       <c r="BN64" t="n">
-        <v>3.417722463921306</v>
+        <v>0</v>
       </c>
       <c r="BO64" t="n">
         <v>0</v>
@@ -24159,7 +24159,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('AR_1',)</t>
+          <t>AR_1</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -24355,7 +24355,7 @@
         <v>0</v>
       </c>
       <c r="BN65" t="n">
-        <v>2.898876820758221</v>
+        <v>0</v>
       </c>
       <c r="BO65" t="n">
         <v>0</v>
@@ -24526,7 +24526,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('AXL_1',)</t>
+          <t>AXL_1</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="BO66" t="n">
-        <v>3.327588345874331</v>
+        <v>0</v>
       </c>
       <c r="BP66" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="BU66" t="n">
-        <v>2.222423640775216</v>
+        <v>0</v>
       </c>
       <c r="BV66" t="n">
         <v>0</v>
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="CC66" t="n">
-        <v>2.778344213785289</v>
+        <v>0</v>
       </c>
       <c r="CD66" t="n">
         <v>0</v>
@@ -24788,7 +24788,7 @@
         <v>0</v>
       </c>
       <c r="CJ66" t="n">
-        <v>2.462320798487193</v>
+        <v>0</v>
       </c>
       <c r="CK66" t="n">
         <v>0</v>
@@ -24860,7 +24860,7 @@
         <v>0</v>
       </c>
       <c r="DH66" t="n">
-        <v>4.161221025325972</v>
+        <v>0</v>
       </c>
       <c r="DI66" t="n">
         <v>0</v>
@@ -24893,7 +24893,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('bFGF',)</t>
+          <t>bFGF</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -25098,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="BQ67" t="n">
-        <v>3.296535117343734</v>
+        <v>0</v>
       </c>
       <c r="BR67" t="n">
         <v>0</v>
@@ -25260,7 +25260,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('b-NGF_1',)</t>
+          <t>b-NGF_1</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -25474,7 +25474,7 @@
         <v>0</v>
       </c>
       <c r="BT68" t="n">
-        <v>3.190972152333547</v>
+        <v>0</v>
       </c>
       <c r="BU68" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('BTC_1',)</t>
+          <t>BTC_1</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -25994,7 +25994,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('CCL-28_1',)</t>
+          <t>CCL-28_1</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -26361,7 +26361,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('CTACK_1',)</t>
+          <t>CTACK_1</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -26578,7 +26578,7 @@
         <v>0</v>
       </c>
       <c r="BU71" t="n">
-        <v>3.695097587331968</v>
+        <v>0</v>
       </c>
       <c r="BV71" t="n">
         <v>0</v>
@@ -26728,7 +26728,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('DTK_1',)</t>
+          <t>DTK_1</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="CH72" t="n">
-        <v>2.436142856450685</v>
+        <v>0</v>
       </c>
       <c r="CI72" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="CV72" t="n">
-        <v>2.398125203674457</v>
+        <v>0</v>
       </c>
       <c r="CW72" t="n">
         <v>0</v>
@@ -27095,7 +27095,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('EGF-R_1',)</t>
+          <t>EGF-R_1</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="DI73" t="n">
-        <v>6.270879411056839</v>
+        <v>0</v>
       </c>
       <c r="DJ73" t="n">
         <v>0</v>
@@ -27462,7 +27462,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('ENA-78_1',)</t>
+          <t>ENA-78_1</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -27691,7 +27691,7 @@
         <v>0</v>
       </c>
       <c r="BY74" t="n">
-        <v>2.182340508145528</v>
+        <v>0</v>
       </c>
       <c r="BZ74" t="n">
         <v>0</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="CE74" t="n">
-        <v>2.32837221022559</v>
+        <v>0</v>
       </c>
       <c r="CF74" t="n">
         <v>0</v>
@@ -27733,7 +27733,7 @@
         <v>0</v>
       </c>
       <c r="CM74" t="n">
-        <v>2.052750490638151</v>
+        <v>0</v>
       </c>
       <c r="CN74" t="n">
         <v>0</v>
@@ -27766,13 +27766,13 @@
         <v>0</v>
       </c>
       <c r="CX74" t="n">
-        <v>3.086860575330915</v>
+        <v>0</v>
       </c>
       <c r="CY74" t="n">
         <v>0</v>
       </c>
       <c r="CZ74" t="n">
-        <v>2.520955342015606</v>
+        <v>0</v>
       </c>
       <c r="DA74" t="n">
         <v>0</v>
@@ -27829,7 +27829,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('FAS_1',)</t>
+          <t>FAS_1</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -28091,10 +28091,10 @@
         <v>0</v>
       </c>
       <c r="CJ75" t="n">
-        <v>2.813566067754022</v>
+        <v>0</v>
       </c>
       <c r="CK75" t="n">
-        <v>3.126326276059457</v>
+        <v>0</v>
       </c>
       <c r="CL75" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="DP75" t="n">
-        <v>3.073907314348155</v>
+        <v>0</v>
       </c>
       <c r="DQ75" t="n">
         <v>0</v>
@@ -28196,7 +28196,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('FGF-4_1',)</t>
+          <t>FGF-4_1</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -28563,7 +28563,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('FGF-9_1',)</t>
+          <t>FGF-9_1</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -28798,7 +28798,7 @@
         <v>0</v>
       </c>
       <c r="CA77" t="n">
-        <v>2.60014145034861</v>
+        <v>0</v>
       </c>
       <c r="CB77" t="n">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="CQ77" t="n">
-        <v>2.031818702745088</v>
+        <v>0</v>
       </c>
       <c r="CR77" t="n">
         <v>0</v>
@@ -28924,13 +28924,13 @@
         <v>0</v>
       </c>
       <c r="DQ77" t="n">
-        <v>2.88061210033746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('GCSF_1',)</t>
+          <t>GCSF_1</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="CB78" t="n">
-        <v>6.736545353514805</v>
+        <v>0</v>
       </c>
       <c r="CC78" t="n">
         <v>0</v>
@@ -29297,7 +29297,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('GITR_1',)</t>
+          <t>GITR_1</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -29643,7 +29643,7 @@
         <v>0</v>
       </c>
       <c r="DL79" t="n">
-        <v>3.071343857182849</v>
+        <v>0</v>
       </c>
       <c r="DM79" t="n">
         <v>0</v>
@@ -29664,7 +29664,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('GITR-Light_1',)</t>
+          <t>GITR-Light_1</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="DP80" t="n">
-        <v>3.550046132579366</v>
+        <v>0</v>
       </c>
       <c r="DQ80" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('GRO_1',)</t>
+          <t>GRO_1</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -30305,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="CN81" t="n">
-        <v>3.136528542075576</v>
+        <v>0</v>
       </c>
       <c r="CO81" t="n">
         <v>0</v>
@@ -30377,7 +30377,7 @@
         <v>0</v>
       </c>
       <c r="DL81" t="n">
-        <v>3.062690207441904</v>
+        <v>0</v>
       </c>
       <c r="DM81" t="n">
         <v>0</v>
@@ -30398,7 +30398,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('GRO-a_1',)</t>
+          <t>GRO-a_1</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -30765,7 +30765,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('HCC-4_1',)</t>
+          <t>HCC-4_1</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -31132,7 +31132,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('HGF_1',)</t>
+          <t>HGF_1</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -31442,7 +31442,7 @@
         <v>0</v>
       </c>
       <c r="CZ84" t="n">
-        <v>2.599699013656457</v>
+        <v>0</v>
       </c>
       <c r="DA84" t="n">
         <v>0</v>
@@ -31463,7 +31463,7 @@
         <v>0</v>
       </c>
       <c r="DG84" t="n">
-        <v>4.022426815856125</v>
+        <v>0</v>
       </c>
       <c r="DH84" t="n">
         <v>0</v>
@@ -31499,7 +31499,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('ICAM-1_1',)</t>
+          <t>ICAM-1_1</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -31788,7 +31788,7 @@
         <v>0</v>
       </c>
       <c r="CS85" t="n">
-        <v>7.822428416635095</v>
+        <v>0</v>
       </c>
       <c r="CT85" t="n">
         <v>0</v>
@@ -31839,7 +31839,7 @@
         <v>0</v>
       </c>
       <c r="DJ85" t="n">
-        <v>7.511662858378448</v>
+        <v>0</v>
       </c>
       <c r="DK85" t="n">
         <v>0</v>
@@ -31866,7 +31866,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('ICAM-3_1',)</t>
+          <t>ICAM-3_1</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -32233,7 +32233,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('IGF-1 SR',)</t>
+          <t>IGF-1 SR</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -32501,7 +32501,7 @@
         <v>0</v>
       </c>
       <c r="CL87" t="n">
-        <v>2.029769164931797</v>
+        <v>0</v>
       </c>
       <c r="CM87" t="n">
         <v>0</v>
@@ -32516,7 +32516,7 @@
         <v>0</v>
       </c>
       <c r="CQ87" t="n">
-        <v>1.655875276452629</v>
+        <v>0</v>
       </c>
       <c r="CR87" t="n">
         <v>0</v>
@@ -32600,7 +32600,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP3_1',)</t>
+          <t>IGFBP3_1</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -32904,7 +32904,7 @@
         <v>0</v>
       </c>
       <c r="CX88" t="n">
-        <v>2.736715807979737</v>
+        <v>0</v>
       </c>
       <c r="CY88" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>0</v>
       </c>
       <c r="DL88" t="n">
-        <v>2.765804989602517</v>
+        <v>0</v>
       </c>
       <c r="DM88" t="n">
         <v>0</v>
@@ -32967,7 +32967,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('IGFBP-6_1',)</t>
+          <t>IGFBP-6_1</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -33334,7 +33334,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('IL-1 RI_1',)</t>
+          <t>IL-1 RI_1</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -33605,7 +33605,7 @@
         <v>0</v>
       </c>
       <c r="CM90" t="n">
-        <v>1.830083714592316</v>
+        <v>0</v>
       </c>
       <c r="CN90" t="n">
         <v>0</v>
@@ -33701,7 +33701,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('IL-11_1',)</t>
+          <t>IL-11_1</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -34068,7 +34068,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('IL-12 p40_1',)</t>
+          <t>IL-12 p40_1</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -34420,7 +34420,7 @@
         <v>0</v>
       </c>
       <c r="DN92" t="n">
-        <v>3.589466176821942</v>
+        <v>0</v>
       </c>
       <c r="DO92" t="n">
         <v>0</v>
@@ -34435,7 +34435,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('IL-12 p70_1',)</t>
+          <t>IL-12 p70_1</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -34715,13 +34715,13 @@
         <v>0</v>
       </c>
       <c r="CP93" t="n">
-        <v>2.024380753975541</v>
+        <v>0</v>
       </c>
       <c r="CQ93" t="n">
         <v>0</v>
       </c>
       <c r="CR93" t="n">
-        <v>1.945105592292277</v>
+        <v>0</v>
       </c>
       <c r="CS93" t="n">
         <v>0</v>
@@ -34760,7 +34760,7 @@
         <v>0</v>
       </c>
       <c r="DE93" t="n">
-        <v>2.474957754585053</v>
+        <v>0</v>
       </c>
       <c r="DF93" t="n">
         <v>0</v>
@@ -34802,7 +34802,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('IL-17_1',)</t>
+          <t>IL-17_1</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -35169,7 +35169,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('IL-1R4 /ST2_1',)</t>
+          <t>IL-1R4 /ST2_1</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -35536,7 +35536,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('IL-2 Ra_1',)</t>
+          <t>IL-2 Ra_1</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -35903,7 +35903,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('IL-6 R_1',)</t>
+          <t>IL-6 R_1</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -36252,7 +36252,7 @@
         <v>0</v>
       </c>
       <c r="DM97" t="n">
-        <v>6.618918398088351</v>
+        <v>0</v>
       </c>
       <c r="DN97" t="n">
         <v>0</v>
@@ -36270,7 +36270,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('IL-8_1',)</t>
+          <t>IL-8_1</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -36628,7 +36628,7 @@
         <v>0</v>
       </c>
       <c r="DP98" t="n">
-        <v>4.374830257029248</v>
+        <v>0</v>
       </c>
       <c r="DQ98" t="n">
         <v>0</v>
@@ -36637,7 +36637,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('I-TAC_1',)</t>
+          <t>I-TAC_1</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -37004,7 +37004,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('Lymphotactin_1',)</t>
+          <t>Lymphotactin_1</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -37371,7 +37371,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('MIF_1',)</t>
+          <t>MIF_1</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -37678,7 +37678,7 @@
         <v>0</v>
       </c>
       <c r="CY101" t="n">
-        <v>3.029796972261715</v>
+        <v>0</v>
       </c>
       <c r="CZ101" t="n">
         <v>0</v>
@@ -37738,7 +37738,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1a_1',)</t>
+          <t>MIP-1a_1</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -38045,7 +38045,7 @@
         <v>0</v>
       </c>
       <c r="CY102" t="n">
-        <v>2.598668594844669</v>
+        <v>0</v>
       </c>
       <c r="CZ102" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>('MIP-1b_1',)</t>
+          <t>MIP-1b_1</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -38472,7 +38472,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>('MIP-3b_1',)</t>
+          <t>MIP-3b_1</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -38788,7 +38788,7 @@
         <v>0</v>
       </c>
       <c r="DB104" t="n">
-        <v>2.45908800653536</v>
+        <v>0</v>
       </c>
       <c r="DC104" t="n">
         <v>0</v>
@@ -38839,7 +38839,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>('MSP-a_1',)</t>
+          <t>MSP-a_1</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -39188,7 +39188,7 @@
         <v>0</v>
       </c>
       <c r="DM105" t="n">
-        <v>6.945157648999515</v>
+        <v>0</v>
       </c>
       <c r="DN105" t="n">
         <v>0</v>
@@ -39206,7 +39206,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>('NT-4_1',)</t>
+          <t>NT-4_1</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -39528,7 +39528,7 @@
         <v>0</v>
       </c>
       <c r="DD106" t="n">
-        <v>2.429247810291088</v>
+        <v>0</v>
       </c>
       <c r="DE106" t="n">
         <v>0</v>
@@ -39573,7 +39573,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>('OSM_1',)</t>
+          <t>OSM_1</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -39895,7 +39895,7 @@
         <v>0</v>
       </c>
       <c r="DD107" t="n">
-        <v>1.641258877885187</v>
+        <v>0</v>
       </c>
       <c r="DE107" t="n">
         <v>0</v>
@@ -39934,13 +39934,13 @@
         <v>0</v>
       </c>
       <c r="DQ107" t="n">
-        <v>2.896772011563663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>('OST_1',)</t>
+          <t>OST_1</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -40265,7 +40265,7 @@
         <v>0</v>
       </c>
       <c r="DE108" t="n">
-        <v>2.323563586533574</v>
+        <v>0</v>
       </c>
       <c r="DF108" t="n">
         <v>0</v>
@@ -40307,7 +40307,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>('PIGF_1',)</t>
+          <t>PIGF_1</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -40674,7 +40674,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>('spg130_1',)</t>
+          <t>spg130_1</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -41008,7 +41008,7 @@
         <v>0</v>
       </c>
       <c r="DH110" t="n">
-        <v>4.710393567820589</v>
+        <v>0</v>
       </c>
       <c r="DI110" t="n">
         <v>0</v>
@@ -41041,7 +41041,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>('sTNF RI_1',)</t>
+          <t>sTNF RI_1</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -41408,7 +41408,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>('sTNF RII_1',)</t>
+          <t>sTNF RII_1</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -41757,7 +41757,7 @@
         <v>0</v>
       </c>
       <c r="DM112" t="n">
-        <v>6.912941143963344</v>
+        <v>0</v>
       </c>
       <c r="DN112" t="n">
         <v>0</v>
@@ -41775,7 +41775,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>('TECK_1',)</t>
+          <t>TECK_1</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -42142,7 +42142,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>('TIMP-1_1',)</t>
+          <t>TIMP-1_1</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -42491,7 +42491,7 @@
         <v>0</v>
       </c>
       <c r="DM114" t="n">
-        <v>6.808032815099374</v>
+        <v>0</v>
       </c>
       <c r="DN114" t="n">
         <v>0</v>
@@ -42509,7 +42509,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>('TIMP-2_1',)</t>
+          <t>TIMP-2_1</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -42876,7 +42876,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>('TPO_1',)</t>
+          <t>TPO_1</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -43228,10 +43228,10 @@
         <v>0</v>
       </c>
       <c r="DN116" t="n">
-        <v>2.623355271672106</v>
+        <v>0</v>
       </c>
       <c r="DO116" t="n">
-        <v>2.571794582034603</v>
+        <v>0</v>
       </c>
       <c r="DP116" t="n">
         <v>0</v>
@@ -43243,7 +43243,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>('TRAIL R3_1',)</t>
+          <t>TRAIL R3_1</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -43610,7 +43610,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>('TRAIL R4_1',)</t>
+          <t>TRAIL R4_1</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -43968,7 +43968,7 @@
         <v>0</v>
       </c>
       <c r="DP118" t="n">
-        <v>2.901204857614565</v>
+        <v>0</v>
       </c>
       <c r="DQ118" t="n">
         <v>0</v>
@@ -43977,7 +43977,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>('uPAR_1',)</t>
+          <t>uPAR_1</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -44338,13 +44338,13 @@
         <v>0</v>
       </c>
       <c r="DQ119" t="n">
-        <v>2.701306109175479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>('VEGF-B_1',)</t>
+          <t>VEGF-B_1</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -44711,7 +44711,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>('VEGF-D_1',)</t>
+          <t>VEGF-D_1</t>
         </is>
       </c>
       <c r="B121" t="n">
